--- a/Pending.xlsx
+++ b/Pending.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Features of Spring Boot and benefits </t>
   </si>
@@ -55,7 +55,10 @@
     <t xml:space="preserve">Using @Service Annotation Class for Business Layer </t>
   </si>
   <si>
-    <t xml:space="preserve">Working with swagger and Postman Utility </t>
+    <t xml:space="preserve">Postman Utility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working with swagger</t>
   </si>
   <si>
     <t xml:space="preserve">Retrieving LIST in REST </t>
@@ -151,12 +154,18 @@
       <sz val="10.000000"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -199,8 +208,14 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="0">
@@ -642,7 +657,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A19" zoomScale="180" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A8" zoomScale="180" workbookViewId="0">
       <selection activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -692,7 +707,7 @@
       </c>
     </row>
     <row r="9" ht="12.75">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" ht="12.800000000000001">
       <c r="A10" s="1" t="s">
@@ -725,12 +740,12 @@
       </c>
     </row>
     <row r="16" ht="12.800000000000001">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="12.800000000000001">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -754,21 +769,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="12.75">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" ht="12.800000000000001">
-      <c r="A23" s="1" t="s">
+    <row r="22" ht="12.800000000000001">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="12.75">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" ht="12.800000000000001">
-      <c r="A25" s="1" t="s">
+    <row r="23" ht="12.75">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" ht="12.800000000000001">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="25" ht="12.75">
+      <c r="A25" s="2"/>
     </row>
     <row r="26" ht="12.800000000000001">
       <c r="A26" s="1" t="s">
@@ -785,99 +800,104 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" ht="12.75">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" ht="12.800000000000001">
-      <c r="A30" s="1" t="s">
+    <row r="29" ht="12.800000000000001">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="12.75">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" ht="12.800000000000001">
-      <c r="A32" s="1" t="s">
+    <row r="30" ht="12.75">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" ht="12.800000000000001">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" ht="12.75">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" ht="12.800000000000001">
-      <c r="A34" s="1" t="s">
+    <row r="32" ht="12.75">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" ht="12.800000000000001">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="34" ht="12.75">
+      <c r="A34" s="2"/>
+    </row>
     <row r="35" ht="12.800000000000001">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" ht="12.75">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" ht="12.800000000000001">
-      <c r="A37" s="1" t="s">
+    <row r="36" ht="12.800000000000001">
+      <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="37" ht="12.75">
+      <c r="A37" s="2"/>
+    </row>
     <row r="38" ht="12.800000000000001">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" ht="12.800000000000001">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" ht="12.800000000000001">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" ht="12.75">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" ht="12.800000000000001">
-      <c r="A42" s="1" t="s">
+    <row r="41" ht="12.800000000000001">
+      <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="42" ht="12.75">
+      <c r="A42" s="2"/>
+    </row>
     <row r="43" ht="12.800000000000001">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" ht="12.800000000000001">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" ht="12.800000000000001">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" ht="12.800000000000001">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" ht="12.800000000000001">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" ht="12.800000000000001">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" ht="12.800000000000001">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="50" ht="12.800000000000001">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Pending.xlsx
+++ b/Pending.xlsx
@@ -269,11 +269,11 @@
   </sheetPr>
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.42"/>
   </cols>
